--- a/resources/tools/wordlist_E-J/lessons/lesson-19.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-19.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,108 +436,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to become late</t>
+          <t>(your/his) wife (polite)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>遅れる|おくれる</t>
+          <t>奥様|おくさま</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to sit down</t>
+          <t>(your/their) child (polite)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>かける</t>
+          <t>お子さん|おこさん</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to become sunny</t>
+          <t>expression of gratitude</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>晴れる|はれる</t>
+          <t>お礼|おれい</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to be popular (in terms of romantic interest)</t>
+          <t>honorific language</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>もてる</t>
+          <t>敬語|けいご</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>to hold back for the time being; to refrain from</t>
+          <t>this way (polite)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>遠慮する|えんりょする</t>
+          <t>こちら</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>to treat/invite (someone) to a meal</t>
+          <t>business trip</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ごちそうする</t>
+          <t>出張|しゅっちょう</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>to invite someone (to an event/a place)</t>
+          <t>a kind; a sort</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>招待する|しょうたいする</t>
+          <t>種類|しゅるい</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>to watch out; to give warning</t>
+          <t>personality</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>注意する|ちゅういする</t>
+          <t>性格|せいかく</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>to have a talk</t>
+          <t>junior high school student</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>話をする|はなしをする</t>
+          <t>中学生|ちゅうがくせい</t>
         </is>
       </c>
     </row>
@@ -596,288 +664,288 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>(your/his) wife (polite)</t>
+          <t>honorific expression for いく, くる, and いる</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>奥様|おくさま</t>
+          <t>いらっしゃる</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>(your/their) child (polite)</t>
+          <t>to walk/drive (someone)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>お子さん|おこさん</t>
+          <t>送る|おくる</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>expression of gratitude</t>
+          <t>to get angry</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>お礼|おれい</t>
+          <t>怒る|おこる</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>honorific language</t>
+          <t>honorific expression for いう</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>敬語|けいご</t>
+          <t>おっしゃる</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>this way (polite)</t>
+          <t>honorific expression for ねる</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>こちら</t>
+          <t>お休みになる|おやすみになる</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>business trip</t>
+          <t>to be decided</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>出張|しゅっちょう</t>
+          <t>決まる|きまる</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>a kind; a sort</t>
+          <t>honorific expression for くれる</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>種類|しゅるい</t>
+          <t>下さる|くださる</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>honorific expression for みる</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>性格|せいかく</t>
+          <t>ご覧になる|ごらんになる</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>junior high school student</t>
+          <t>to get acquainted with</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>中学生|ちゅうがくせい</t>
+          <t>知り合う|しりあう</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>honorific expression for いく, くる, and いる</t>
+          <t>honorific expression for ～ている</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>いらっしゃる</t>
+          <t>～ていらっしゃる</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>to walk/drive (someone)</t>
+          <t>honorific expression for する</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>送る|おくる</t>
+          <t>なさる</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>to get angry</t>
+          <t>to move (to another place to live)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>怒る|おこる</t>
+          <t>引っ越す|ひっこす</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>honorific expression for いう</t>
+          <t>honorific expression for たべる and のむ</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>おっしゃる</t>
+          <t>召し上がる|めしあがる</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>honorific expression for ねる</t>
+          <t>to call (one's name); to invite</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>お休みになる|おやすみになる</t>
+          <t>呼ぶ|よぶ</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>to be decided</t>
+          <t>to stop by</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>決まる|きまる</t>
+          <t>寄る|よる</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>honorific expression for くれる</t>
+          <t>to become late</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>下さる|くださる</t>
+          <t>遅れる|おくれる</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>honorific expression for みる</t>
+          <t>to sit down</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ご覧になる|ごらんになる</t>
+          <t>かける</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>to get acquainted with</t>
+          <t>to become sunny</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>知り合う|しりあう</t>
+          <t>晴れる|はれる</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>honorific expression for ～ている</t>
+          <t>to be popular (in terms of romantic interest)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>～ていらっしゃる</t>
+          <t>もてる</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>honorific expression for する</t>
+          <t>to hold back for the time being; to refrain from</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>なさる</t>
+          <t>遠慮する|えんりょする</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>to move (to another place to live)</t>
+          <t>to treat/invite (someone) to a meal</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>引っ越す|ひっこす</t>
+          <t>ごちそうする</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>honorific expression for たべる and のむ</t>
+          <t>to invite someone (to an event/a place)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>召し上がる|めしあがる</t>
+          <t>招待する|しょうたいする</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>to call (one's name); to invite</t>
+          <t>to watch out; to give warning</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>呼ぶ|よぶ</t>
+          <t>注意する|ちゅういする</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>to stop by</t>
+          <t>to have a talk</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>寄る|よる</t>
+          <t>話をする|はなしをする</t>
         </is>
       </c>
     </row>
@@ -992,808 +1060,808 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>older sister</t>
+          <t>spring</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>姉|あね</t>
+          <t>春|はる</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>older sister (honorific)</t>
+          <t>spring roll</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>お姉さん|おねえさん</t>
+          <t>春巻|はるまき</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>sisters</t>
+          <t>vernal equinox</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>姉妹|しまい</t>
+          <t>春分|しゅんぶん</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sister city</t>
+          <t>youth</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>姉妹都市|しまいとし</t>
+          <t>青春|せいしゅん</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>older brother</t>
+          <t>autumn</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>兄|あに</t>
+          <t>秋|あき</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>older brother (honorific)</t>
+          <t>fall semester</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>お兄さん|おにいさん</t>
+          <t>秋学期|あきがっき</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>brothers</t>
+          <t>autumnal equinox</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>兄弟|きょうだい</t>
+          <t>秋分|しゅうぶん</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Chinese character</t>
+          <t>winter</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>漢字|かんじ</t>
+          <t>冬|ふゆ</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Chinese herbal medicine</t>
+          <t>winter vacation</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>漢方薬|かんぽうやく</t>
+          <t>冬休み|ふゆやすみ</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Kanji dictionary</t>
+          <t>warm winter</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>漢和辞典|かんわじてん</t>
+          <t>暖冬|だんとう</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>to graduate</t>
+          <t>four seasons</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>卒業する|そつぎょうする</t>
+          <t>春夏秋冬|しゅんかしゅうとう</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>graduation ceremony</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>卒業式|そつぎょうしき</t>
+          <t>花|はな</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>university graduate</t>
+          <t>flower viewing</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>大卒|だいそつ</t>
+          <t>花見|はなみ</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>fireworks</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>質問|しつもん</t>
+          <t>花火|はなび</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>good quality</t>
+          <t>hay fever</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>質がいい|しつがいい</t>
+          <t>花粉症|かふんしょう</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>aptitude</t>
+          <t>flower arrangement</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>素質|そしつ</t>
+          <t>生け花|いけばな</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>pawn shop</t>
+          <t>Mr./Ms.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>質屋|しちや</t>
+          <t>～様|～さま</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>dear customer</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>問題|もんだい</t>
+          <t>お客様|おきゃくさま</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>visit</t>
+          <t>everyone</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>訪問|ほうもん</t>
+          <t>皆様|みなさま</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>to question</t>
+          <t>manner</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>問う|とう</t>
+          <t>様子|ようす</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>uneasy; worried</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>多い|おおい</t>
+          <t>不安な|ふあんな</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>probably</t>
+          <t>recession</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>多分|たぶん</t>
+          <t>不景気|ふけいき</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>many of...</t>
+          <t>inconvenience</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>～の多く|～のおおく</t>
+          <t>不便|ふべん</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>decision by majority</t>
+          <t>water shortage</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>多数決|たすうけつ</t>
+          <t>水不足|みずぶそく</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>spring</t>
+          <t>older sister</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>春|はる</t>
+          <t>姉|あね</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>spring roll</t>
+          <t>older sister (honorific)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>春巻|はるまき</t>
+          <t>お姉さん|おねえさん</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>vernal equinox</t>
+          <t>sisters</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>春分|しゅんぶん</t>
+          <t>姉妹|しまい</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>youth</t>
+          <t>sister city</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>青春|せいしゅん</t>
+          <t>姉妹都市|しまいとし</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>autumn</t>
+          <t>older brother</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>秋|あき</t>
+          <t>兄|あに</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>fall semester</t>
+          <t>older brother (honorific)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>秋学期|あきがっき</t>
+          <t>お兄さん|おにいさん</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>autumnal equinox</t>
+          <t>brothers</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>秋分|しゅうぶん</t>
+          <t>兄弟|きょうだい</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>winter</t>
+          <t>Chinese character</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>冬|ふゆ</t>
+          <t>漢字|かんじ</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>winter vacation</t>
+          <t>Chinese herbal medicine</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>冬休み|ふゆやすみ</t>
+          <t>漢方薬|かんぽうやく</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>warm winter</t>
+          <t>Kanji dictionary</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>暖冬|だんとう</t>
+          <t>漢和辞典|かんわじてん</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>four seasons</t>
+          <t>to graduate</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>春夏秋冬|しゅんかしゅうとう</t>
+          <t>卒業する|そつぎょうする</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>engineering</t>
+          <t>graduation ceremony</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>工学|こうがく</t>
+          <t>卒業式|そつぎょうしき</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>university graduate</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>工事|こうじ</t>
+          <t>大卒|だいそつ</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>factory</t>
+          <t>engineering</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>工場|こうじょう</t>
+          <t>工学|こうがく</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>carpenter</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>大工|だいく</t>
+          <t>工事|こうじ</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>factory</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>研究|けんきゅう</t>
+          <t>工場|こうじょう</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>researcher</t>
+          <t>carpenter</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>研究者|けんきゅうしゃ</t>
+          <t>大工|だいく</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>research</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>研修|けんしゅう</t>
+          <t>研究|けんきゅう</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>to sharpen</t>
+          <t>researcher</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>研ぐ|とぐ</t>
+          <t>研究者|けんきゅうしゃ</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>inquiry</t>
+          <t>training</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>探究|たんきゅう</t>
+          <t>研修|けんしゅう</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>to investigate thoroughly</t>
+          <t>to sharpen</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>究める|きわめる</t>
+          <t>研ぐ|とぐ</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Happy New Year</t>
+          <t>inquiry</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>あけましておめでとうございます</t>
+          <t>探究|たんきゅう</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Happy New Year (kanji)</t>
+          <t>to investigate thoroughly</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>謹賀新年|きんがしんねん</t>
+          <t>究める|きわめる</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Thank you for all your kind help during the past year.</t>
+          <t>question</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>昨年は大変お世話になりました|さくねんはたいへんおせわになりました</t>
+          <t>質問|しつもん</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>I hope for your continued good will this year.</t>
+          <t>good quality</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>本年もどうぞよろしくお願いいたします|ほんねんもどうぞよろしくおねがいいたします</t>
+          <t>質がいい|しつがいい</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>I hope you are keeping well during the hot weather.</t>
+          <t>aptitude</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>暑中お見舞い申し上げます|しょちゅうおみまいもうしあげます</t>
+          <t>素質|そしつ</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Congratulations on your graduation.</t>
+          <t>pawn shop</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ご卒業おめでとうございます|ごそつぎょうおめでとうございます</t>
+          <t>質屋|しちや</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Congratulations on your marriage.</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ご結婚おめでとうございます|ごけっこんおめでとうございます</t>
+          <t>問題|もんだい</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Happy Birthday</t>
+          <t>visit</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>誕生日おめでとう|たんじょうびおめでとう</t>
+          <t>訪問|ほうもん</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Get well soon.</t>
+          <t>to question</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>早くよくなってください|はやくよくなってください</t>
+          <t>問う|とう</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>many</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>花|はな</t>
+          <t>多い|おおい</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>flower viewing</t>
+          <t>probably</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>花見|はなみ</t>
+          <t>多分|たぶん</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>fireworks</t>
+          <t>many of...</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>花火|はなび</t>
+          <t>～の多く|～のおおく</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>hay fever</t>
+          <t>decision by majority</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>花粉症|かふんしょう</t>
+          <t>多数決|たすうけつ</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>flower arrangement</t>
+          <t>Happy New Year</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>生け花|いけばな</t>
+          <t>あけましておめでとうございます</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Mr./Ms.</t>
+          <t>Happy New Year (kanji)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>～様|～さま</t>
+          <t>謹賀新年|きんがしんねん</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>dear customer</t>
+          <t>Thank you for all your kind help during the past year.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>お客様|おきゃくさま</t>
+          <t>昨年は大変お世話になりました|さくねんはたいへんおせわになりました</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>everyone</t>
+          <t>I hope for your continued good will this year.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>皆様|みなさま</t>
+          <t>本年もどうぞよろしくお願いいたします|ほんねんもどうぞよろしくおねがいいたします</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>manner</t>
+          <t>I hope you are keeping well during the hot weather.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>様子|ようす</t>
+          <t>暑中お見舞い申し上げます|しょちゅうおみまいもうしあげます</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>uneasy; worried</t>
+          <t>Congratulations on your graduation.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>不安な|ふあんな</t>
+          <t>ご卒業おめでとうございます|ごそつぎょうおめでとうございます</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>recession</t>
+          <t>Congratulations on your marriage.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>不景気|ふけいき</t>
+          <t>ご結婚おめでとうございます|ごけっこんおめでとうございます</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>inconvenience</t>
+          <t>Happy Birthday</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>不便|ふべん</t>
+          <t>誕生日おめでとう|たんじょうびおめでとう</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>water shortage</t>
+          <t>Get well soon.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>水不足|みずぶそく</t>
+          <t>早くよくなってください|はやくよくなってください</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-19.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-19.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1862,6 +1862,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>